--- a/experimantal_stastics.xlsx
+++ b/experimantal_stastics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherwood/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research_code\rethinking_performance_estimation_in_NAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224494BF-CFBA-C847-9740-13D3DD9A11F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DD8F6-70BD-4D4C-8B6D-FC245433493A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{0A67A1A7-5BF9-43B9-A913-66B85DDD268F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0A67A1A7-5BF9-43B9-A913-66B85DDD268F}"/>
   </bookViews>
   <sheets>
     <sheet name="GroundTruth" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="875">
   <si>
     <t>randomnet-id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2881,6 +2875,10 @@
   </si>
   <si>
     <t>Genotype(normal=[[('avg_pool_3x3', 0), ('sep_conv_3x3', 1)], [('skip_connect', 1), ('sep_conv_5x5', 0)], [('sep_conv_5x5', 2), ('sep_conv_5x5', 1)], [('sep_conv_5x5', 2), ('dil_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 0), ('avg_pool_3x3', 1)], [('max_pool_3x3', 0), ('avg_pool_3x3', 1)], [('max_pool_3x3', 3), ('skip_connect', 1)], [('avg_pool_3x3', 1), ('sep_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>10epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2892,7 +2890,7 @@
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3325,6 +3323,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3336,27 +3337,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3370,11 +3350,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9220,20 +9218,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C3B1BE-7BC3-4DE3-BA34-9ED3889E14B6}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="2" max="3" width="24.1328125" customWidth="1"/>
+    <col min="4" max="4" width="27.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9241,10 +9239,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9252,13 +9253,16 @@
         <v>96.82</v>
       </c>
       <c r="C2" s="4">
+        <v>82.94</v>
+      </c>
+      <c r="D2" s="4">
         <v>96.82</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9266,265 +9270,286 @@
         <v>97.28</v>
       </c>
       <c r="C3" s="4">
+        <v>81.45</v>
+      </c>
+      <c r="D3" s="4">
         <v>97.28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>96.98</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>96.98</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>97.19</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>97.19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>96.87</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>96.87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>96.76</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>96.76</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>97.09</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>97.09</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>97.24</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>97.24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>97.26</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>97.26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>96.92</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>96.92</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>96.82</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>96.82</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>97.09</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>97.09</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>96.62</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>96.62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>97.02</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>97.02</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>97.18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>97.18</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>97.15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>97.15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>97.32</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>97.32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>97.05</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <v>97.05</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>97.02</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
         <v>97.02</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>97.16</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
         <v>97.16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9532,11 +9557,12 @@
         <v>97.34</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9544,11 +9570,12 @@
         <v>97</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9556,11 +9583,12 @@
         <v>97.19</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9568,11 +9596,12 @@
         <v>96.51</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9580,11 +9609,12 @@
         <v>96.85</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9592,11 +9622,12 @@
         <v>96.56</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9604,11 +9635,12 @@
         <v>96.89</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9616,11 +9648,12 @@
         <v>97.01</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9628,11 +9661,12 @@
         <v>97.15</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9640,11 +9674,12 @@
         <v>97.1</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9652,11 +9687,12 @@
         <v>96.87</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9664,11 +9700,12 @@
         <v>96.59</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9676,11 +9713,12 @@
         <v>96.93</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9688,11 +9726,12 @@
         <v>97.24</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9700,11 +9739,12 @@
         <v>97.19</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9712,11 +9752,12 @@
         <v>97.14</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9724,11 +9765,12 @@
         <v>96.55</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9736,11 +9778,12 @@
         <v>97.04</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9748,11 +9791,12 @@
         <v>97.08</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9760,11 +9804,12 @@
         <v>96.95</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9772,11 +9817,12 @@
         <v>97.4</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9784,11 +9830,12 @@
         <v>96.97</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9796,11 +9843,12 @@
         <v>97.16</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9808,11 +9856,12 @@
         <v>96.9</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9820,11 +9869,12 @@
         <v>96.78</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9832,11 +9882,12 @@
         <v>96.94</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9844,11 +9895,12 @@
         <v>97.12</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" t="s">
+      <c r="D48" s="3"/>
+      <c r="E48" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9856,11 +9908,12 @@
         <v>97.13</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9868,11 +9921,12 @@
         <v>97.05</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" t="s">
+      <c r="D50" s="3"/>
+      <c r="E50" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9880,11 +9934,12 @@
         <v>97.04</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9892,11 +9947,12 @@
         <v>96.55</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9904,11 +9960,12 @@
         <v>96.92</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9916,11 +9973,12 @@
         <v>96.8</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9928,11 +9986,12 @@
         <v>97.08</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" t="s">
+      <c r="D55" s="3"/>
+      <c r="E55" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9940,11 +9999,12 @@
         <v>97.28</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9952,11 +10012,12 @@
         <v>96.94</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9964,11 +10025,12 @@
         <v>97.08</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9976,11 +10038,12 @@
         <v>97.11</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" t="s">
+      <c r="D59" s="3"/>
+      <c r="E59" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9988,11 +10051,12 @@
         <v>97.35</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10000,11 +10064,12 @@
         <v>97.15</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10012,11 +10077,12 @@
         <v>97.07</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" t="s">
+      <c r="D62" s="3"/>
+      <c r="E62" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10024,11 +10090,12 @@
         <v>96.93</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10036,11 +10103,12 @@
         <v>96.4</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10048,11 +10116,12 @@
         <v>97.02</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" t="s">
+      <c r="D65" s="3"/>
+      <c r="E65" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10060,11 +10129,12 @@
         <v>96.85</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10072,11 +10142,12 @@
         <v>96.79</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10084,11 +10155,12 @@
         <v>96.18</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10096,11 +10168,12 @@
         <v>96.75</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" t="s">
+      <c r="D69" s="3"/>
+      <c r="E69" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10108,11 +10181,12 @@
         <v>97.02</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10120,11 +10194,12 @@
         <v>97.45</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10132,11 +10207,12 @@
         <v>97.08</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" t="s">
+      <c r="D72" s="3"/>
+      <c r="E72" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10144,11 +10220,12 @@
         <v>97.41</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" t="s">
+      <c r="D73" s="3"/>
+      <c r="E73" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10156,11 +10233,12 @@
         <v>96.96</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" t="s">
+      <c r="D74" s="3"/>
+      <c r="E74" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10168,11 +10246,12 @@
         <v>96.52</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" t="s">
+      <c r="D75" s="3"/>
+      <c r="E75" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10180,11 +10259,12 @@
         <v>96.87</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" t="s">
+      <c r="D76" s="3"/>
+      <c r="E76" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10192,11 +10272,12 @@
         <v>96.47</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" t="s">
+      <c r="D77" s="3"/>
+      <c r="E77" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10204,11 +10285,12 @@
         <v>97.2</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" t="s">
+      <c r="D78" s="3"/>
+      <c r="E78" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10216,11 +10298,12 @@
         <v>96.31</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" t="s">
+      <c r="D79" s="3"/>
+      <c r="E79" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10228,11 +10311,12 @@
         <v>96.99</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10240,11 +10324,12 @@
         <v>97.13</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10252,11 +10337,12 @@
         <v>97.16</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" t="s">
+      <c r="D82" s="3"/>
+      <c r="E82" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10264,11 +10350,12 @@
         <v>97.08</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" t="s">
+      <c r="D83" s="3"/>
+      <c r="E83" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10276,11 +10363,12 @@
         <v>97.07</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" t="s">
+      <c r="D84" s="3"/>
+      <c r="E84" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10288,11 +10376,12 @@
         <v>96.62</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" t="s">
+      <c r="D85" s="3"/>
+      <c r="E85" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10300,11 +10389,12 @@
         <v>97.18</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" t="s">
+      <c r="D86" s="3"/>
+      <c r="E86" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10312,11 +10402,12 @@
         <v>97.2</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" t="s">
+      <c r="D87" s="3"/>
+      <c r="E87" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10324,11 +10415,12 @@
         <v>97.11</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" t="s">
+      <c r="D88" s="3"/>
+      <c r="E88" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10336,11 +10428,12 @@
         <v>96.81</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" t="s">
+      <c r="D89" s="3"/>
+      <c r="E89" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10348,11 +10441,12 @@
         <v>96.9</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" t="s">
+      <c r="D90" s="3"/>
+      <c r="E90" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10360,11 +10454,12 @@
         <v>97.21</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" t="s">
+      <c r="D91" s="3"/>
+      <c r="E91" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10372,11 +10467,12 @@
         <v>96.94</v>
       </c>
       <c r="C92" s="3"/>
-      <c r="D92" t="s">
+      <c r="D92" s="3"/>
+      <c r="E92" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10384,11 +10480,12 @@
         <v>96.96</v>
       </c>
       <c r="C93" s="3"/>
-      <c r="D93" t="s">
+      <c r="D93" s="3"/>
+      <c r="E93" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10396,11 +10493,12 @@
         <v>96.81</v>
       </c>
       <c r="C94" s="3"/>
-      <c r="D94" t="s">
+      <c r="D94" s="3"/>
+      <c r="E94" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10408,11 +10506,12 @@
         <v>96.93</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" t="s">
+      <c r="D95" s="3"/>
+      <c r="E95" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10420,11 +10519,12 @@
         <v>97.36</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" t="s">
+      <c r="D96" s="3"/>
+      <c r="E96" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10432,11 +10532,12 @@
         <v>97.01</v>
       </c>
       <c r="C97" s="3"/>
-      <c r="D97" t="s">
+      <c r="D97" s="3"/>
+      <c r="E97" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10444,11 +10545,12 @@
         <v>97.12</v>
       </c>
       <c r="C98" s="3"/>
-      <c r="D98" t="s">
+      <c r="D98" s="3"/>
+      <c r="E98" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10456,11 +10558,12 @@
         <v>97.05</v>
       </c>
       <c r="C99" s="3"/>
-      <c r="D99" t="s">
+      <c r="D99" s="3"/>
+      <c r="E99" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10468,11 +10571,12 @@
         <v>96.85</v>
       </c>
       <c r="C100" s="3"/>
-      <c r="D100" t="s">
+      <c r="D100" s="3"/>
+      <c r="E100" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10480,23 +10584,26 @@
         <v>97.38</v>
       </c>
       <c r="C101" s="3"/>
-      <c r="D101" t="s">
+      <c r="D101" s="3"/>
+      <c r="E101" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="B107" s="82">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B107" s="66">
         <f>MAX(B2:B101)</f>
         <v>97.45</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="B108" s="82">
+      <c r="C107" s="66"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B108" s="66">
         <f>AVERAGE(B2:B101)</f>
         <v>96.989199999999983</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="C108" s="66"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B109">
         <f>STDEV(B2:B101)</f>
         <v>0.24622679863011659</v>
@@ -10517,17 +10624,17 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="101" style="45" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="31.46484375" style="45" customWidth="1"/>
     <col min="6" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
         <v>390</v>
       </c>
@@ -10544,7 +10651,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>393</v>
       </c>
@@ -10559,7 +10666,7 @@
       </c>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47" t="s">
         <v>395</v>
       </c>
@@ -10576,7 +10683,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="46" t="s">
         <v>397</v>
       </c>
@@ -10593,7 +10700,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="45" t="s">
         <v>400</v>
       </c>
@@ -10604,7 +10711,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="45" t="s">
         <v>403</v>
       </c>
@@ -10615,7 +10722,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
         <v>405</v>
       </c>
@@ -10626,7 +10733,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="45" t="s">
         <v>420</v>
       </c>
@@ -10637,7 +10744,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32">
+    <row r="9" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9" s="45" t="s">
         <v>410</v>
       </c>
@@ -10648,7 +10755,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32">
+    <row r="10" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10" s="45" t="s">
         <v>411</v>
       </c>
@@ -10659,7 +10766,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="46" t="s">
         <v>413</v>
       </c>
@@ -10670,7 +10777,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="45" t="s">
         <v>415</v>
       </c>
@@ -10681,12 +10788,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="80">
+    <row r="13" spans="1:5" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32">
+    <row r="14" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14" s="45" t="s">
         <v>422</v>
       </c>
@@ -10697,7 +10804,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="46" t="s">
         <v>605</v>
       </c>
@@ -10711,7 +10818,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="45" t="s">
         <v>596</v>
       </c>
@@ -10736,17 +10843,17 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="31" width="7.83203125" style="1" customWidth="1"/>
-    <col min="32" max="36" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="21.46484375" style="1" customWidth="1"/>
+    <col min="2" max="31" width="7.796875" style="1" customWidth="1"/>
+    <col min="32" max="36" width="8.796875" style="1"/>
     <col min="37" max="37" width="14" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.1640625" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.83203125" style="1"/>
+    <col min="38" max="38" width="10.1328125" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -10862,7 +10969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -10978,7 +11085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -11094,7 +11201,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -11210,7 +11317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -11326,7 +11433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -11442,7 +11549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -11558,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -11674,7 +11781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="6" customFormat="1" ht="11.5" customHeight="1">
+    <row r="9" spans="1:38" s="6" customFormat="1" ht="11.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="AA9" s="22" t="s">
         <v>83</v>
@@ -11692,7 +11799,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="6" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:38" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -11808,7 +11915,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <v>0</v>
       </c>
@@ -11924,7 +12031,7 @@
         <v>91.21</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -12040,7 +12147,7 @@
         <v>91.96</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
         <v>2</v>
       </c>
@@ -12156,7 +12263,7 @@
         <v>91.36</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
         <v>3</v>
       </c>
@@ -12272,7 +12379,7 @@
         <v>91.89</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
         <v>4</v>
       </c>
@@ -12388,7 +12495,7 @@
         <v>91.84</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
         <v>5</v>
       </c>
@@ -12504,7 +12611,7 @@
         <v>90.76</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>6</v>
       </c>
@@ -12620,7 +12727,7 @@
         <v>91.13</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
         <v>7</v>
       </c>
@@ -12736,7 +12843,7 @@
         <v>91.38</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
         <v>8</v>
       </c>
@@ -12852,7 +12959,7 @@
         <v>91.69</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <v>9</v>
       </c>
@@ -12968,7 +13075,7 @@
         <v>90.32</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <v>10</v>
       </c>
@@ -13084,7 +13191,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <v>11</v>
       </c>
@@ -13200,7 +13307,7 @@
         <v>91.31</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A23" s="11">
         <v>12</v>
       </c>
@@ -13316,7 +13423,7 @@
         <v>90.68</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A24" s="11">
         <v>13</v>
       </c>
@@ -13432,7 +13539,7 @@
         <v>91.78</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <v>14</v>
       </c>
@@ -13548,7 +13655,7 @@
         <v>91.89</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
         <v>15</v>
       </c>
@@ -13664,7 +13771,7 @@
         <v>90.59</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
         <v>16</v>
       </c>
@@ -13780,7 +13887,7 @@
         <v>91.58</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
         <v>17</v>
       </c>
@@ -13896,7 +14003,7 @@
         <v>90.88</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
         <v>18</v>
       </c>
@@ -14012,7 +14119,7 @@
         <v>91.49</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
         <v>19</v>
       </c>
@@ -14128,7 +14235,7 @@
         <v>91.72</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A31" s="11">
         <v>20</v>
       </c>
@@ -14244,7 +14351,7 @@
         <v>91.69</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A32" s="11">
         <v>21</v>
       </c>
@@ -14360,7 +14467,7 @@
         <v>90.86</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A33" s="11">
         <v>22</v>
       </c>
@@ -14476,7 +14583,7 @@
         <v>91.36</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A34" s="11">
         <v>23</v>
       </c>
@@ -14592,7 +14699,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A35" s="11">
         <v>24</v>
       </c>
@@ -14708,7 +14815,7 @@
         <v>91.79</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A36" s="11">
         <v>25</v>
       </c>
@@ -14824,7 +14931,7 @@
         <v>91.43</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A37" s="11">
         <v>26</v>
       </c>
@@ -14940,7 +15047,7 @@
         <v>90.52</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A38" s="11">
         <v>27</v>
       </c>
@@ -15056,7 +15163,7 @@
         <v>91.58</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A39" s="11">
         <v>28</v>
       </c>
@@ -15172,7 +15279,7 @@
         <v>91.03</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A40" s="11">
         <v>29</v>
       </c>
@@ -15288,7 +15395,7 @@
         <v>91.91</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A41" s="11">
         <v>30</v>
       </c>
@@ -15404,7 +15511,7 @@
         <v>90.64</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A42" s="11">
         <v>31</v>
       </c>
@@ -15520,7 +15627,7 @@
         <v>90.54</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A43" s="11">
         <v>32</v>
       </c>
@@ -15636,7 +15743,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A44" s="11">
         <v>33</v>
       </c>
@@ -15752,7 +15859,7 @@
         <v>92.21</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A45" s="11">
         <v>34</v>
       </c>
@@ -15868,7 +15975,7 @@
         <v>91.56</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A46" s="11">
         <v>35</v>
       </c>
@@ -15984,7 +16091,7 @@
         <v>91.52</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A47" s="11">
         <v>36</v>
       </c>
@@ -16100,7 +16207,7 @@
         <v>91.12</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A48" s="11">
         <v>37</v>
       </c>
@@ -16216,7 +16323,7 @@
         <v>91.52</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A49" s="11">
         <v>38</v>
       </c>
@@ -16332,7 +16439,7 @@
         <v>90.74</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A50" s="11">
         <v>39</v>
       </c>
@@ -16448,7 +16555,7 @@
         <v>90.98</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A51" s="11">
         <v>40</v>
       </c>
@@ -16564,7 +16671,7 @@
         <v>91.87</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A52" s="11">
         <v>41</v>
       </c>
@@ -16680,7 +16787,7 @@
         <v>91.72</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A53" s="11">
         <v>42</v>
       </c>
@@ -16796,7 +16903,7 @@
         <v>91.68</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A54" s="11">
         <v>43</v>
       </c>
@@ -16912,7 +17019,7 @@
         <v>92.09</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A55" s="11">
         <v>44</v>
       </c>
@@ -17028,7 +17135,7 @@
         <v>90.82</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A56" s="11">
         <v>45</v>
       </c>
@@ -17144,7 +17251,7 @@
         <v>91.41</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A57" s="11">
         <v>46</v>
       </c>
@@ -17260,7 +17367,7 @@
         <v>91.73</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A58" s="11">
         <v>47</v>
       </c>
@@ -17376,7 +17483,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A59" s="11">
         <v>48</v>
       </c>
@@ -17492,7 +17599,7 @@
         <v>91.24</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A60" s="11">
         <v>49</v>
       </c>
@@ -17608,7 +17715,7 @@
         <v>91.73</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A61" s="11">
         <v>50</v>
       </c>
@@ -17724,7 +17831,7 @@
         <v>90.08</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A62" s="11">
         <v>51</v>
       </c>
@@ -17840,7 +17947,7 @@
         <v>92.11</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A63" s="11">
         <v>52</v>
       </c>
@@ -17956,7 +18063,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A64" s="11">
         <v>53</v>
       </c>
@@ -18072,7 +18179,7 @@
         <v>91.84</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A65" s="11">
         <v>54</v>
       </c>
@@ -18188,7 +18295,7 @@
         <v>92.01</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A66" s="11">
         <v>55</v>
       </c>
@@ -18304,7 +18411,7 @@
         <v>91.35</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A67" s="11">
         <v>56</v>
       </c>
@@ -18420,7 +18527,7 @@
         <v>91.71</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A68" s="11">
         <v>57</v>
       </c>
@@ -18536,7 +18643,7 @@
         <v>90.73</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A69" s="11">
         <v>58</v>
       </c>
@@ -18652,7 +18759,7 @@
         <v>91.85</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A70" s="11">
         <v>59</v>
       </c>
@@ -18768,7 +18875,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A71" s="11">
         <v>60</v>
       </c>
@@ -18884,7 +18991,7 @@
         <v>91.73</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A72" s="11">
         <v>61</v>
       </c>
@@ -19000,7 +19107,7 @@
         <v>91.41</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A73" s="11">
         <v>62</v>
       </c>
@@ -19116,7 +19223,7 @@
         <v>91.38</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A74" s="11">
         <v>63</v>
       </c>
@@ -19232,7 +19339,7 @@
         <v>91.71</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A75" s="11">
         <v>64</v>
       </c>
@@ -19348,7 +19455,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A76" s="11">
         <v>65</v>
       </c>
@@ -19464,7 +19571,7 @@
         <v>90.57</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A77" s="11">
         <v>66</v>
       </c>
@@ -19580,7 +19687,7 @@
         <v>91.22</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A78" s="11">
         <v>67</v>
       </c>
@@ -19696,7 +19803,7 @@
         <v>91.04</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A79" s="11">
         <v>68</v>
       </c>
@@ -19812,7 +19919,7 @@
         <v>91.07</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A80" s="11">
         <v>69</v>
       </c>
@@ -19928,7 +20035,7 @@
         <v>92.42</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A81" s="11">
         <v>70</v>
       </c>
@@ -20044,7 +20151,7 @@
         <v>91.92</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A82" s="11">
         <v>71</v>
       </c>
@@ -20160,7 +20267,7 @@
         <v>91.83</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A83" s="11">
         <v>72</v>
       </c>
@@ -20276,7 +20383,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A84" s="11">
         <v>73</v>
       </c>
@@ -20392,7 +20499,7 @@
         <v>90.82</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A85" s="11">
         <v>74</v>
       </c>
@@ -20508,7 +20615,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A86" s="11">
         <v>75</v>
       </c>
@@ -20624,7 +20731,7 @@
         <v>91.17</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A87" s="11">
         <v>76</v>
       </c>
@@ -20740,7 +20847,7 @@
         <v>91.99</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A88" s="11">
         <v>77</v>
       </c>
@@ -20856,7 +20963,7 @@
         <v>90.73</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A89" s="11">
         <v>78</v>
       </c>
@@ -20972,7 +21079,7 @@
         <v>91.31</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A90" s="11">
         <v>79</v>
       </c>
@@ -21088,7 +21195,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A91" s="11">
         <v>80</v>
       </c>
@@ -21204,7 +21311,7 @@
         <v>92.11</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A92" s="11">
         <v>81</v>
       </c>
@@ -21320,7 +21427,7 @@
         <v>90.74</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A93" s="11">
         <v>82</v>
       </c>
@@ -21436,7 +21543,7 @@
         <v>90.88</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A94" s="11">
         <v>83</v>
       </c>
@@ -21552,7 +21659,7 @@
         <v>91.04</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A95" s="11">
         <v>84</v>
       </c>
@@ -21668,7 +21775,7 @@
         <v>91.38</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A96" s="11">
         <v>85</v>
       </c>
@@ -21784,7 +21891,7 @@
         <v>91.54</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A97" s="11">
         <v>86</v>
       </c>
@@ -21900,7 +22007,7 @@
         <v>91.69</v>
       </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A98" s="11">
         <v>87</v>
       </c>
@@ -22016,7 +22123,7 @@
         <v>90.29</v>
       </c>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A99" s="11">
         <v>88</v>
       </c>
@@ -22132,7 +22239,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A100" s="11">
         <v>89</v>
       </c>
@@ -22248,7 +22355,7 @@
         <v>91.87</v>
       </c>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A101" s="11">
         <v>90</v>
       </c>
@@ -22364,7 +22471,7 @@
         <v>91.44</v>
       </c>
     </row>
-    <row r="102" spans="1:38">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A102" s="11">
         <v>91</v>
       </c>
@@ -22480,7 +22587,7 @@
         <v>90.98</v>
       </c>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A103" s="11">
         <v>92</v>
       </c>
@@ -22596,7 +22703,7 @@
         <v>90.92</v>
       </c>
     </row>
-    <row r="104" spans="1:38">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A104" s="11">
         <v>93</v>
       </c>
@@ -22712,7 +22819,7 @@
         <v>90.61</v>
       </c>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A105" s="11">
         <v>94</v>
       </c>
@@ -22828,7 +22935,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A106" s="11">
         <v>95</v>
       </c>
@@ -22944,7 +23051,7 @@
         <v>91.93</v>
       </c>
     </row>
-    <row r="107" spans="1:38">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A107" s="11">
         <v>96</v>
       </c>
@@ -23060,7 +23167,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="108" spans="1:38">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A108" s="11">
         <v>97</v>
       </c>
@@ -23176,7 +23283,7 @@
         <v>91.13</v>
       </c>
     </row>
-    <row r="109" spans="1:38" ht="1.5" customHeight="1">
+    <row r="109" spans="1:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11">
         <v>98</v>
       </c>
@@ -23292,7 +23399,7 @@
         <v>91.06</v>
       </c>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A110" s="11">
         <v>99</v>
       </c>
@@ -23408,7 +23515,7 @@
         <v>92.56</v>
       </c>
     </row>
-    <row r="111" spans="1:38" s="16" customFormat="1" ht="16">
+    <row r="111" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" s="15" t="s">
         <v>14</v>
       </c>
@@ -23561,7 +23668,7 @@
         <v>91.355999999999952</v>
       </c>
     </row>
-    <row r="112" spans="1:38" ht="16">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A112" s="11" t="s">
         <v>16</v>
       </c>
@@ -23714,7 +23821,7 @@
         <v>0.5065096247851566</v>
       </c>
     </row>
-    <row r="113" spans="1:38" ht="15" customHeight="1">
+    <row r="113" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="11" t="s">
         <v>17</v>
       </c>
@@ -23867,7 +23974,7 @@
         <v>0.71169489585436585</v>
       </c>
     </row>
-    <row r="114" spans="1:38" s="20" customFormat="1" ht="16">
+    <row r="114" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="17" t="s">
         <v>15</v>
       </c>
@@ -23983,7 +24090,7 @@
         <v>0.57509999999999994</v>
       </c>
     </row>
-    <row r="115" spans="1:38" ht="14" customHeight="1">
+    <row r="115" spans="1:38" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="11" t="s">
         <v>47</v>
       </c>
@@ -24099,7 +24206,7 @@
         <v>1.3802000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:38" ht="16">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A116" s="11" t="s">
         <v>44</v>
       </c>
@@ -24215,7 +24322,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="117" spans="1:38" ht="160">
+    <row r="117" spans="1:38" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A117" s="11" t="s">
         <v>48</v>
       </c>
@@ -24331,7 +24438,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="1:38" ht="16">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A118" s="11" t="s">
         <v>49</v>
       </c>
@@ -24447,7 +24554,7 @@
         <v>97.18</v>
       </c>
     </row>
-    <row r="119" spans="1:38" ht="16">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A119" s="11" t="s">
         <v>50</v>
       </c>
@@ -24563,17 +24670,17 @@
         <v>97.18</v>
       </c>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A123" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A124" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A125" s="10" t="s">
         <v>35</v>
       </c>
@@ -24593,19 +24700,19 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="17.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -24631,7 +24738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
@@ -24657,7 +24764,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
@@ -24665,7 +24772,7 @@
         <v>0.45867999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -24673,7 +24780,7 @@
         <v>0.38716</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
@@ -24681,7 +24788,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -24707,7 +24814,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
@@ -24733,7 +24840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
@@ -24759,7 +24866,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
@@ -24785,7 +24892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
@@ -24811,7 +24918,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
@@ -24819,7 +24926,7 @@
         <v>0.47189999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -24827,7 +24934,7 @@
         <v>0.42520000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
@@ -24835,7 +24942,7 @@
         <v>0.70809999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
@@ -24858,7 +24965,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -24881,7 +24988,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="26" t="s">
         <v>30</v>
       </c>
@@ -24889,7 +24996,7 @@
         <v>0.49359999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
         <v>31</v>
       </c>
@@ -24897,7 +25004,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
@@ -24905,7 +25012,7 @@
         <v>0.27710000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -24913,7 +25020,7 @@
         <v>0.64749999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -24921,7 +25028,7 @@
         <v>0.64290000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -24929,7 +25036,7 @@
         <v>0.60329999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -24937,7 +25044,7 @@
         <v>0.34920000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -24945,7 +25052,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -24953,7 +25060,7 @@
         <v>0.75529999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -24961,7 +25068,7 @@
         <v>0.68779999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -24969,7 +25076,7 @@
         <v>0.69479999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -24995,7 +25102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -25021,7 +25128,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>96</v>
       </c>
@@ -25047,7 +25154,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -25073,7 +25180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>99</v>
       </c>
@@ -25099,7 +25206,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>100</v>
       </c>
@@ -25125,7 +25232,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -25151,12 +25258,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>385</v>
       </c>
@@ -25176,12 +25283,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
@@ -25192,7 +25299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -25203,7 +25310,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -25214,7 +25321,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
@@ -25225,7 +25332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
@@ -25236,7 +25343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -25247,7 +25354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
@@ -25258,7 +25365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
@@ -25269,7 +25376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
@@ -25280,7 +25387,7 @@
         <v>0.62450000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="41" t="s">
         <v>47</v>
       </c>
@@ -25305,9 +25412,9 @@
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="18">
         <v>0.49265999999999999</v>
       </c>
@@ -25315,7 +25422,7 @@
         <v>96.72</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="18">
         <v>0.49669999999999997</v>
       </c>
@@ -25323,7 +25430,7 @@
         <v>97.11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>0.23150000000000001</v>
       </c>
@@ -25331,7 +25438,7 @@
         <v>96.55</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>0.37509999999999999</v>
       </c>
@@ -25339,7 +25446,7 @@
         <v>95.94</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="19">
         <v>0.2109</v>
       </c>
@@ -25347,7 +25454,7 @@
         <v>96.93</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="19">
         <v>0.49170000000000003</v>
       </c>
@@ -25355,7 +25462,7 @@
         <v>97.06</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="19">
         <v>0.21440000000000001</v>
       </c>
@@ -25363,7 +25470,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>0.37609999999999999</v>
       </c>
@@ -25371,7 +25478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>0.45910000000000001</v>
       </c>
@@ -25379,7 +25486,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>0.38929999999999998</v>
       </c>
@@ -25387,7 +25494,7 @@
         <v>96.85</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>0.55430000000000001</v>
       </c>
@@ -25395,7 +25502,7 @@
         <v>96.68</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <v>0.60070000000000001</v>
       </c>
@@ -25403,7 +25510,7 @@
         <v>97.17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>0.60799999999999998</v>
       </c>
@@ -25411,7 +25518,7 @@
         <v>97.13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>0.62450000000000006</v>
       </c>
@@ -25419,7 +25526,7 @@
         <v>97.28</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="20">
         <v>0.43959999999999999</v>
       </c>
@@ -25427,7 +25534,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>389</v>
       </c>
@@ -25447,20 +25554,20 @@
       <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.6640625" style="38" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="13.1328125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>127</v>
       </c>
@@ -25489,11 +25596,11 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="67">
         <v>50</v>
       </c>
       <c r="C2" s="32">
@@ -25518,9 +25625,9 @@
         <v>68.44</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="32">
         <v>2</v>
       </c>
@@ -25543,9 +25650,9 @@
         <v>65.92</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="32">
         <v>3</v>
       </c>
@@ -25568,9 +25675,9 @@
         <v>68.040000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="32">
         <v>4</v>
       </c>
@@ -25593,9 +25700,9 @@
         <v>63.68</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="32">
         <v>5</v>
       </c>
@@ -25618,9 +25725,9 @@
         <v>67.94</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="32">
         <v>6</v>
       </c>
@@ -25643,9 +25750,9 @@
         <v>66.98</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="32">
         <v>7</v>
       </c>
@@ -25668,9 +25775,9 @@
         <v>65.959999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="32">
         <v>8</v>
       </c>
@@ -25693,9 +25800,9 @@
         <v>67.94</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67">
         <v>100</v>
       </c>
       <c r="C10" s="32">
@@ -25720,9 +25827,9 @@
         <v>67.53</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="32">
         <v>2</v>
       </c>
@@ -25745,9 +25852,9 @@
         <v>66.23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="32">
         <v>3</v>
       </c>
@@ -25770,9 +25877,9 @@
         <v>66.09</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="32">
         <v>4</v>
       </c>
@@ -25795,9 +25902,9 @@
         <v>65.08</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="32">
         <v>5</v>
       </c>
@@ -25820,9 +25927,9 @@
         <v>66.75</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="32">
         <v>6</v>
       </c>
@@ -25845,9 +25952,9 @@
         <v>68.67</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="32">
         <v>7</v>
       </c>
@@ -25870,9 +25977,9 @@
         <v>67.62</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="32">
         <v>8</v>
       </c>
@@ -25895,9 +26002,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67">
         <v>200</v>
       </c>
       <c r="C18" s="32">
@@ -25922,9 +26029,9 @@
         <v>68.06</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="32">
         <v>2</v>
       </c>
@@ -25947,9 +26054,9 @@
         <v>66.97</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="32">
         <v>3</v>
       </c>
@@ -25972,9 +26079,9 @@
         <v>67.849999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="32">
         <v>4</v>
       </c>
@@ -25997,9 +26104,9 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="32">
         <v>5</v>
       </c>
@@ -26022,9 +26129,9 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="32">
         <v>6</v>
       </c>
@@ -26047,9 +26154,9 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="32">
         <v>7</v>
       </c>
@@ -26072,9 +26179,9 @@
         <v>68.459999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="32">
         <v>8</v>
       </c>
@@ -26097,9 +26204,9 @@
         <v>68.63</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67">
         <v>400</v>
       </c>
       <c r="C26" s="32">
@@ -26124,9 +26231,9 @@
         <v>68.44</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="32">
         <v>2</v>
       </c>
@@ -26149,9 +26256,9 @@
         <v>65.540000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="32">
         <v>3</v>
       </c>
@@ -26174,9 +26281,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="32">
         <v>4</v>
       </c>
@@ -26199,9 +26306,9 @@
         <v>67.63</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="32">
         <v>5</v>
       </c>
@@ -26224,9 +26331,9 @@
         <v>67.349999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="32">
         <v>6</v>
       </c>
@@ -26249,9 +26356,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="32">
         <v>7</v>
       </c>
@@ -26274,9 +26381,9 @@
         <v>68.010000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="32">
         <v>8</v>
       </c>
@@ -26299,9 +26406,9 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67">
         <v>600</v>
       </c>
       <c r="C34" s="32">
@@ -26326,9 +26433,9 @@
         <v>66.56</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="66"/>
-      <c r="B35" s="66"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="32">
         <v>2</v>
       </c>
@@ -26351,9 +26458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="32">
         <v>3</v>
       </c>
@@ -26376,9 +26483,9 @@
         <v>67.959999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="66"/>
-      <c r="B37" s="66"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="32">
         <v>4</v>
       </c>
@@ -26401,9 +26508,9 @@
         <v>67.42</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="32">
         <v>5</v>
       </c>
@@ -26426,9 +26533,9 @@
         <v>67.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="32">
         <v>6</v>
       </c>
@@ -26451,9 +26558,9 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="32">
         <v>7</v>
       </c>
@@ -26476,9 +26583,9 @@
         <v>66.44</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="32">
         <v>8</v>
       </c>
@@ -26501,11 +26608,11 @@
         <v>68.040000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="66" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="66">
+      <c r="B42" s="67">
         <v>50</v>
       </c>
       <c r="C42" s="32">
@@ -26530,9 +26637,9 @@
         <v>67.88</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="66"/>
-      <c r="B43" s="66"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="32">
         <v>2</v>
       </c>
@@ -26555,9 +26662,9 @@
         <v>67.78</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="32">
         <v>3</v>
       </c>
@@ -26580,9 +26687,9 @@
         <v>64.88</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="32">
         <v>4</v>
       </c>
@@ -26605,9 +26712,9 @@
         <v>65.930000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="32">
         <v>5</v>
       </c>
@@ -26630,9 +26737,9 @@
         <v>67.23</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="32">
         <v>6</v>
       </c>
@@ -26655,9 +26762,9 @@
         <v>68.260000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="32">
         <v>7</v>
       </c>
@@ -26680,9 +26787,9 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="32">
         <v>8</v>
       </c>
@@ -26705,9 +26812,9 @@
         <v>67.36</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="67"/>
+      <c r="B50" s="67">
         <v>100</v>
       </c>
       <c r="C50" s="32">
@@ -26732,9 +26839,9 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="32">
         <v>2</v>
       </c>
@@ -26757,9 +26864,9 @@
         <v>64.61</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="32">
         <v>3</v>
       </c>
@@ -26782,9 +26889,9 @@
         <v>67.56</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="66"/>
-      <c r="B53" s="66"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="32">
         <v>4</v>
       </c>
@@ -26807,9 +26914,9 @@
         <v>68.209999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="66"/>
-      <c r="B54" s="66"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="32">
         <v>5</v>
       </c>
@@ -26832,9 +26939,9 @@
         <v>67.87</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="32">
         <v>6</v>
       </c>
@@ -26857,9 +26964,9 @@
         <v>68.739999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="66"/>
-      <c r="B56" s="66"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="32">
         <v>7</v>
       </c>
@@ -26882,9 +26989,9 @@
         <v>65.47</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="66"/>
-      <c r="B57" s="66"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="32">
         <v>8</v>
       </c>
@@ -26907,9 +27014,9 @@
         <v>65.05</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="66"/>
-      <c r="B58" s="66">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="67"/>
+      <c r="B58" s="67">
         <v>200</v>
       </c>
       <c r="C58" s="32">
@@ -26934,9 +27041,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="66"/>
-      <c r="B59" s="66"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="32">
         <v>2</v>
       </c>
@@ -26959,9 +27066,9 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="66"/>
-      <c r="B60" s="66"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="32">
         <v>3</v>
       </c>
@@ -26984,9 +27091,9 @@
         <v>65.709999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="66"/>
-      <c r="B61" s="66"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="32">
         <v>4</v>
       </c>
@@ -27009,9 +27116,9 @@
         <v>66.34</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="66"/>
-      <c r="B62" s="66"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="32">
         <v>5</v>
       </c>
@@ -27034,9 +27141,9 @@
         <v>64.44</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="66"/>
-      <c r="B63" s="66"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="32">
         <v>6</v>
       </c>
@@ -27059,9 +27166,9 @@
         <v>67.180000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="66"/>
-      <c r="B64" s="66"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="32">
         <v>7</v>
       </c>
@@ -27084,9 +27191,9 @@
         <v>67.72</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="32">
         <v>8</v>
       </c>
@@ -27109,9 +27216,9 @@
         <v>68.260000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="66"/>
-      <c r="B66" s="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="67"/>
+      <c r="B66" s="67">
         <v>400</v>
       </c>
       <c r="C66" s="32">
@@ -27136,9 +27243,9 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="32">
         <v>2</v>
       </c>
@@ -27161,9 +27268,9 @@
         <v>64.510000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="32">
         <v>3</v>
       </c>
@@ -27186,9 +27293,9 @@
         <v>66.47</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="32">
         <v>4</v>
       </c>
@@ -27211,9 +27318,9 @@
         <v>65.37</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="32">
         <v>5</v>
       </c>
@@ -27236,9 +27343,9 @@
         <v>68.790000000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="32">
         <v>6</v>
       </c>
@@ -27261,9 +27368,9 @@
         <v>70.010000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="32">
         <v>7</v>
       </c>
@@ -27286,9 +27393,9 @@
         <v>69.36</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="32">
         <v>8</v>
       </c>
@@ -27311,9 +27418,9 @@
         <v>66.42</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="66"/>
-      <c r="B74" s="66">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67">
         <v>600</v>
       </c>
       <c r="C74" s="32">
@@ -27338,9 +27445,9 @@
         <v>66.61</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="66"/>
-      <c r="B75" s="66"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="32">
         <v>2</v>
       </c>
@@ -27363,9 +27470,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="66"/>
-      <c r="B76" s="66"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="67"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="32">
         <v>3</v>
       </c>
@@ -27388,9 +27495,9 @@
         <v>65.62</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="66"/>
-      <c r="B77" s="66"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="32">
         <v>4</v>
       </c>
@@ -27413,9 +27520,9 @@
         <v>66.989999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="66"/>
-      <c r="B78" s="66"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="32">
         <v>5</v>
       </c>
@@ -27438,9 +27545,9 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="66"/>
-      <c r="B79" s="66"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="32">
         <v>6</v>
       </c>
@@ -27463,9 +27570,9 @@
         <v>67.63</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="66"/>
-      <c r="B80" s="66"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="32">
         <v>7</v>
       </c>
@@ -27488,9 +27595,9 @@
         <v>65.27</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="32">
         <v>8</v>
       </c>
@@ -27513,11 +27620,11 @@
         <v>67.53</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="66" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="67" t="s">
         <v>587</v>
       </c>
-      <c r="B82" s="66">
+      <c r="B82" s="67">
         <v>50</v>
       </c>
       <c r="C82" s="32">
@@ -27542,9 +27649,9 @@
         <v>66.12</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="66"/>
-      <c r="B83" s="66"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="32">
         <v>2</v>
       </c>
@@ -27567,9 +27674,9 @@
         <v>65.52</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="66"/>
-      <c r="B84" s="66"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="32">
         <v>3</v>
       </c>
@@ -27592,9 +27699,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="66"/>
-      <c r="B85" s="66"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="32">
         <v>4</v>
       </c>
@@ -27617,9 +27724,9 @@
         <v>62.68</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="66"/>
-      <c r="B86" s="66"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" s="67"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="32">
         <v>5</v>
       </c>
@@ -27642,9 +27749,9 @@
         <v>65.260000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="66"/>
-      <c r="B87" s="66"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="32">
         <v>6</v>
       </c>
@@ -27667,9 +27774,9 @@
         <v>67.09</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="66"/>
-      <c r="B88" s="66"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="67"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="32">
         <v>7</v>
       </c>
@@ -27692,9 +27799,9 @@
         <v>67.37</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="66"/>
-      <c r="B89" s="66"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="67"/>
+      <c r="B89" s="67"/>
       <c r="C89" s="32">
         <v>8</v>
       </c>
@@ -27717,9 +27824,9 @@
         <v>66.84</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="66"/>
-      <c r="B90" s="66">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="67"/>
+      <c r="B90" s="67">
         <v>100</v>
       </c>
       <c r="C90" s="32">
@@ -27744,9 +27851,9 @@
         <v>66.98</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="66"/>
-      <c r="B91" s="66"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="67"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="32">
         <v>2</v>
       </c>
@@ -27769,9 +27876,9 @@
         <v>68.22</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="66"/>
-      <c r="B92" s="66"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="67"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="32">
         <v>3</v>
       </c>
@@ -27794,9 +27901,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="66"/>
-      <c r="B93" s="66"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="67"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="32">
         <v>4</v>
       </c>
@@ -27819,9 +27926,9 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="66"/>
-      <c r="B94" s="66"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="67"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="32">
         <v>5</v>
       </c>
@@ -27844,9 +27951,9 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="66"/>
-      <c r="B95" s="66"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="67"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="32">
         <v>6</v>
       </c>
@@ -27869,9 +27976,9 @@
         <v>63.88</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="66"/>
-      <c r="B96" s="66"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="67"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="32">
         <v>7</v>
       </c>
@@ -27894,9 +28001,9 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="66"/>
-      <c r="B97" s="66"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="67"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="32">
         <v>8</v>
       </c>
@@ -27919,9 +28026,9 @@
         <v>67.510000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="66"/>
-      <c r="B98" s="66">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="67"/>
+      <c r="B98" s="67">
         <v>200</v>
       </c>
       <c r="C98" s="32">
@@ -27946,9 +28053,9 @@
         <v>69.12</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="66"/>
-      <c r="B99" s="66"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" s="67"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="32">
         <v>2</v>
       </c>
@@ -27971,9 +28078,9 @@
         <v>65.11</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="66"/>
-      <c r="B100" s="66"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="67"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="32">
         <v>3</v>
       </c>
@@ -27996,9 +28103,9 @@
         <v>67.680000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="66"/>
-      <c r="B101" s="66"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="67"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="32">
         <v>4</v>
       </c>
@@ -28021,9 +28128,9 @@
         <v>67.510000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="66"/>
-      <c r="B102" s="66"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="67"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="32">
         <v>5</v>
       </c>
@@ -28046,9 +28153,9 @@
         <v>65.930000000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="66"/>
-      <c r="B103" s="66"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" s="67"/>
+      <c r="B103" s="67"/>
       <c r="C103" s="32">
         <v>6</v>
       </c>
@@ -28071,9 +28178,9 @@
         <v>65.19</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="66"/>
-      <c r="B104" s="66"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" s="67"/>
+      <c r="B104" s="67"/>
       <c r="C104" s="32">
         <v>7</v>
       </c>
@@ -28096,9 +28203,9 @@
         <v>64.430000000000007</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" s="67"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="32">
         <v>8</v>
       </c>
@@ -28121,9 +28228,9 @@
         <v>66.97</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="66"/>
-      <c r="B106" s="66">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="67"/>
+      <c r="B106" s="67">
         <v>400</v>
       </c>
       <c r="C106" s="32">
@@ -28148,9 +28255,9 @@
         <v>64.69</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="66"/>
-      <c r="B107" s="66"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="32">
         <v>2</v>
       </c>
@@ -28173,9 +28280,9 @@
         <v>66.09</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66"/>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="32">
         <v>3</v>
       </c>
@@ -28198,9 +28305,9 @@
         <v>66.97</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="66"/>
-      <c r="B109" s="66"/>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" s="67"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="32">
         <v>4</v>
       </c>
@@ -28223,9 +28330,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="66"/>
-      <c r="B110" s="66"/>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="32">
         <v>5</v>
       </c>
@@ -28248,9 +28355,9 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="66"/>
-      <c r="B111" s="66"/>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="32">
         <v>6</v>
       </c>
@@ -28273,9 +28380,9 @@
         <v>68.680000000000007</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="66"/>
-      <c r="B112" s="66"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112" s="67"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="32">
         <v>7</v>
       </c>
@@ -28298,9 +28405,9 @@
         <v>67.709999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="66"/>
-      <c r="B113" s="66"/>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113" s="67"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="32">
         <v>8</v>
       </c>
@@ -28323,9 +28430,9 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="66"/>
-      <c r="B114" s="66">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114" s="67"/>
+      <c r="B114" s="67">
         <v>600</v>
       </c>
       <c r="C114" s="32">
@@ -28350,9 +28457,9 @@
         <v>66.73</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="66"/>
-      <c r="B115" s="66"/>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115" s="67"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="32">
         <v>2</v>
       </c>
@@ -28375,9 +28482,9 @@
         <v>68.84</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="66"/>
-      <c r="B116" s="66"/>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
       <c r="C116" s="32">
         <v>3</v>
       </c>
@@ -28400,9 +28507,9 @@
         <v>68.739999999999995</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="66"/>
-      <c r="B117" s="66"/>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117" s="67"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="32">
         <v>4</v>
       </c>
@@ -28425,9 +28532,9 @@
         <v>66.94</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="66"/>
-      <c r="B118" s="66"/>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118" s="67"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="32">
         <v>5</v>
       </c>
@@ -28450,9 +28557,9 @@
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="66"/>
-      <c r="B119" s="66"/>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119" s="67"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="32">
         <v>6</v>
       </c>
@@ -28475,9 +28582,9 @@
         <v>66.41</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="66"/>
-      <c r="B120" s="66"/>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120" s="67"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="32">
         <v>7</v>
       </c>
@@ -28500,9 +28607,9 @@
         <v>65.989999999999995</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="66"/>
-      <c r="B121" s="66"/>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121" s="67"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="32">
         <v>8</v>
       </c>
@@ -28527,24 +28634,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A42:A81"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="B74:B81"/>
     <mergeCell ref="A82:A121"/>
     <mergeCell ref="B82:B89"/>
     <mergeCell ref="B90:B97"/>
     <mergeCell ref="B98:B105"/>
     <mergeCell ref="B106:B113"/>
     <mergeCell ref="B114:B121"/>
-    <mergeCell ref="A42:A81"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28559,19 +28666,19 @@
       <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" style="38" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
         <v>127</v>
       </c>
@@ -28597,11 +28704,11 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="67">
         <v>50</v>
       </c>
       <c r="C2" s="44">
@@ -28623,9 +28730,9 @@
         <v>66.97</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="68"/>
-      <c r="B3" s="66"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="44">
         <v>2</v>
       </c>
@@ -28645,9 +28752,9 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="68"/>
-      <c r="B4" s="66"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="44">
         <v>3</v>
       </c>
@@ -28667,9 +28774,9 @@
         <v>66.959999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="68"/>
-      <c r="B5" s="66"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="69"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="44">
         <v>4</v>
       </c>
@@ -28689,9 +28796,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="68"/>
-      <c r="B6" s="66"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="69"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="44">
         <v>5</v>
       </c>
@@ -28711,9 +28818,9 @@
         <v>67.569999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="68"/>
-      <c r="B7" s="66"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="69"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="44">
         <v>6</v>
       </c>
@@ -28733,9 +28840,9 @@
         <v>66.78</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="68"/>
-      <c r="B8" s="66"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="69"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="44">
         <v>7</v>
       </c>
@@ -28755,9 +28862,9 @@
         <v>66.39</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="68"/>
-      <c r="B9" s="66"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="69"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="44">
         <v>8</v>
       </c>
@@ -28777,9 +28884,9 @@
         <v>69.36</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="68"/>
-      <c r="B10" s="66">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="69"/>
+      <c r="B10" s="67">
         <v>100</v>
       </c>
       <c r="C10" s="44">
@@ -28801,9 +28908,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="68"/>
-      <c r="B11" s="66"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="69"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="44">
         <v>2</v>
       </c>
@@ -28823,9 +28930,9 @@
         <v>66.19</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="68"/>
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="69"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="44">
         <v>3</v>
       </c>
@@ -28845,9 +28952,9 @@
         <v>68.790000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="68"/>
-      <c r="B13" s="66"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="69"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="44">
         <v>4</v>
       </c>
@@ -28867,9 +28974,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="68"/>
-      <c r="B14" s="66"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="69"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="44">
         <v>5</v>
       </c>
@@ -28889,9 +28996,9 @@
         <v>67.72</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="68"/>
-      <c r="B15" s="66"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="69"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="44">
         <v>6</v>
       </c>
@@ -28911,9 +29018,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="68"/>
-      <c r="B16" s="66"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="69"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="44">
         <v>7</v>
       </c>
@@ -28933,9 +29040,9 @@
         <v>66.569999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="68"/>
-      <c r="B17" s="66"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="69"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="44">
         <v>8</v>
       </c>
@@ -28955,9 +29062,9 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="68"/>
-      <c r="B18" s="66">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="69"/>
+      <c r="B18" s="67">
         <v>200</v>
       </c>
       <c r="C18" s="44">
@@ -28979,9 +29086,9 @@
         <v>67.709999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="68"/>
-      <c r="B19" s="66"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="69"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="44">
         <v>2</v>
       </c>
@@ -29001,9 +29108,9 @@
         <v>68.48</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="68"/>
-      <c r="B20" s="66"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="69"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="44">
         <v>3</v>
       </c>
@@ -29023,9 +29130,9 @@
         <v>68.61</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="68"/>
-      <c r="B21" s="66"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="69"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="44">
         <v>4</v>
       </c>
@@ -29045,9 +29152,9 @@
         <v>69.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="68"/>
-      <c r="B22" s="66"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="69"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="44">
         <v>5</v>
       </c>
@@ -29067,9 +29174,9 @@
         <v>66.12</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="68"/>
-      <c r="B23" s="66"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="69"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="44">
         <v>6</v>
       </c>
@@ -29089,9 +29196,9 @@
         <v>66.569999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="68"/>
-      <c r="B24" s="66"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="69"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="44">
         <v>7</v>
       </c>
@@ -29111,9 +29218,9 @@
         <v>65.41</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="68"/>
-      <c r="B25" s="66"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="69"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="44">
         <v>8</v>
       </c>
@@ -29133,9 +29240,9 @@
         <v>66.98</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="68"/>
-      <c r="B26" s="66">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="69"/>
+      <c r="B26" s="67">
         <v>400</v>
       </c>
       <c r="C26" s="44">
@@ -29157,9 +29264,9 @@
         <v>68.010000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="68"/>
-      <c r="B27" s="66"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="69"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="44">
         <v>2</v>
       </c>
@@ -29179,9 +29286,9 @@
         <v>67.540000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="68"/>
-      <c r="B28" s="66"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="69"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="44">
         <v>3</v>
       </c>
@@ -29201,9 +29308,9 @@
         <v>68.53</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="68"/>
-      <c r="B29" s="66"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="69"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="44">
         <v>4</v>
       </c>
@@ -29223,9 +29330,9 @@
         <v>68.040000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="68"/>
-      <c r="B30" s="66"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="69"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="44">
         <v>5</v>
       </c>
@@ -29245,9 +29352,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="68"/>
-      <c r="B31" s="66"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="69"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="44">
         <v>6</v>
       </c>
@@ -29267,9 +29374,9 @@
         <v>68.69</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="68"/>
-      <c r="B32" s="66"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="69"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="44">
         <v>7</v>
       </c>
@@ -29289,9 +29396,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="68"/>
-      <c r="B33" s="66"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="69"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="44">
         <v>8</v>
       </c>
@@ -29311,9 +29418,9 @@
         <v>66.47</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="68"/>
-      <c r="B34" s="66">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="69"/>
+      <c r="B34" s="67">
         <v>600</v>
       </c>
       <c r="C34" s="44">
@@ -29335,9 +29442,9 @@
         <v>65.41</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="68"/>
-      <c r="B35" s="66"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="69"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="44">
         <v>2</v>
       </c>
@@ -29357,9 +29464,9 @@
         <v>68.72</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="68"/>
-      <c r="B36" s="66"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="69"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="44">
         <v>3</v>
       </c>
@@ -29379,9 +29486,9 @@
         <v>67.39</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="68"/>
-      <c r="B37" s="66"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="69"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="44">
         <v>4</v>
       </c>
@@ -29401,9 +29508,9 @@
         <v>66.12</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="68"/>
-      <c r="B38" s="66"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="69"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="44">
         <v>5</v>
       </c>
@@ -29423,9 +29530,9 @@
         <v>68.260000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="68"/>
-      <c r="B39" s="66"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="69"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="44">
         <v>6</v>
       </c>
@@ -29445,9 +29552,9 @@
         <v>67.05</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="68"/>
-      <c r="B40" s="66"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="69"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="44">
         <v>7</v>
       </c>
@@ -29467,9 +29574,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="69"/>
-      <c r="B41" s="66"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="70"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="44">
         <v>8</v>
       </c>
@@ -29489,11 +29596,11 @@
         <v>68.02</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="67" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="B42" s="66">
+      <c r="B42" s="67">
         <v>50</v>
       </c>
       <c r="C42" s="44">
@@ -29515,9 +29622,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="68"/>
-      <c r="B43" s="66"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="69"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="44">
         <v>2</v>
       </c>
@@ -29537,9 +29644,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="68"/>
-      <c r="B44" s="66"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="69"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="44">
         <v>3</v>
       </c>
@@ -29559,9 +29666,9 @@
         <v>67.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="68"/>
-      <c r="B45" s="66"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="69"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="44">
         <v>4</v>
       </c>
@@ -29581,9 +29688,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="68"/>
-      <c r="B46" s="66"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="69"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="44">
         <v>5</v>
       </c>
@@ -29603,9 +29710,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="68"/>
-      <c r="B47" s="66"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="69"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="44">
         <v>6</v>
       </c>
@@ -29625,9 +29732,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="68"/>
-      <c r="B48" s="66"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="69"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="44">
         <v>7</v>
       </c>
@@ -29647,9 +29754,9 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="68"/>
-      <c r="B49" s="66"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="69"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="44">
         <v>8</v>
       </c>
@@ -29669,9 +29776,9 @@
         <v>66.569999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="68"/>
-      <c r="B50" s="66">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="69"/>
+      <c r="B50" s="67">
         <v>100</v>
       </c>
       <c r="C50" s="44">
@@ -29693,9 +29800,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="68"/>
-      <c r="B51" s="66"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="69"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="44">
         <v>2</v>
       </c>
@@ -29715,9 +29822,9 @@
         <v>66.19</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="68"/>
-      <c r="B52" s="66"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="69"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="44">
         <v>3</v>
       </c>
@@ -29737,9 +29844,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="68"/>
-      <c r="B53" s="66"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="69"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="44">
         <v>4</v>
       </c>
@@ -29759,9 +29866,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="68"/>
-      <c r="B54" s="66"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="69"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="44">
         <v>5</v>
       </c>
@@ -29781,9 +29888,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="68"/>
-      <c r="B55" s="66"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="69"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="44">
         <v>6</v>
       </c>
@@ -29803,9 +29910,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="68"/>
-      <c r="B56" s="66"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="69"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="44">
         <v>7</v>
       </c>
@@ -29825,9 +29932,9 @@
         <v>66.569999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="68"/>
-      <c r="B57" s="66"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="69"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="44">
         <v>8</v>
       </c>
@@ -29847,9 +29954,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="68"/>
-      <c r="B58" s="66">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="69"/>
+      <c r="B58" s="67">
         <v>200</v>
       </c>
       <c r="C58" s="44">
@@ -29871,9 +29978,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="68"/>
-      <c r="B59" s="66"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="69"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="44">
         <v>2</v>
       </c>
@@ -29893,9 +30000,9 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="68"/>
-      <c r="B60" s="66"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="69"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="44">
         <v>3</v>
       </c>
@@ -29915,9 +30022,9 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="68"/>
-      <c r="B61" s="66"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="69"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="44">
         <v>4</v>
       </c>
@@ -29937,9 +30044,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="68"/>
-      <c r="B62" s="66"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="69"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="44">
         <v>5</v>
       </c>
@@ -29959,9 +30066,9 @@
         <v>66.19</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="68"/>
-      <c r="B63" s="66"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="69"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="44">
         <v>6</v>
       </c>
@@ -29981,9 +30088,9 @@
         <v>66.569999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="68"/>
-      <c r="B64" s="66"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="69"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="44">
         <v>7</v>
       </c>
@@ -30003,9 +30110,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="68"/>
-      <c r="B65" s="66"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="69"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="44">
         <v>8</v>
       </c>
@@ -30025,9 +30132,9 @@
         <v>67.72</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="68"/>
-      <c r="B66" s="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="69"/>
+      <c r="B66" s="67">
         <v>400</v>
       </c>
       <c r="C66" s="44">
@@ -30049,9 +30156,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="68"/>
-      <c r="B67" s="66"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="69"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="44">
         <v>2</v>
       </c>
@@ -30071,9 +30178,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="68"/>
-      <c r="B68" s="66"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="69"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="44">
         <v>3</v>
       </c>
@@ -30093,9 +30200,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="68"/>
-      <c r="B69" s="66"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="69"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="44">
         <v>4</v>
       </c>
@@ -30115,9 +30222,9 @@
         <v>67.23</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="68"/>
-      <c r="B70" s="66"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="69"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="44">
         <v>5</v>
       </c>
@@ -30137,9 +30244,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="68"/>
-      <c r="B71" s="66"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="69"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="44">
         <v>6</v>
       </c>
@@ -30159,9 +30266,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="68"/>
-      <c r="B72" s="66"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="69"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="44">
         <v>7</v>
       </c>
@@ -30181,9 +30288,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="68"/>
-      <c r="B73" s="66"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="69"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="44">
         <v>8</v>
       </c>
@@ -30203,9 +30310,9 @@
         <v>65.58</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="68"/>
-      <c r="B74" s="66">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="69"/>
+      <c r="B74" s="67">
         <v>600</v>
       </c>
       <c r="C74" s="44">
@@ -30227,9 +30334,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="68"/>
-      <c r="B75" s="66"/>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="69"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="44">
         <v>2</v>
       </c>
@@ -30249,9 +30356,9 @@
         <v>68.819999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="68"/>
-      <c r="B76" s="66"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" s="69"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="44">
         <v>3</v>
       </c>
@@ -30271,9 +30378,9 @@
         <v>67.69</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="68"/>
-      <c r="B77" s="66"/>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" s="69"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="44">
         <v>4</v>
       </c>
@@ -30293,9 +30400,9 @@
         <v>66.12</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="68"/>
-      <c r="B78" s="66"/>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" s="69"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="44">
         <v>5</v>
       </c>
@@ -30315,9 +30422,9 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="68"/>
-      <c r="B79" s="66"/>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" s="69"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="44">
         <v>6</v>
       </c>
@@ -30337,9 +30444,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="68"/>
-      <c r="B80" s="66"/>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" s="69"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="44">
         <v>7</v>
       </c>
@@ -30359,9 +30466,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="69"/>
-      <c r="B81" s="66"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="70"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="44">
         <v>8</v>
       </c>
@@ -30381,11 +30488,11 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A82" s="67" t="s">
+    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="B82" s="66">
+      <c r="B82" s="67">
         <v>50</v>
       </c>
       <c r="C82" s="44">
@@ -30407,9 +30514,9 @@
         <v>67.09</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="68"/>
-      <c r="B83" s="66"/>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" s="69"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="44">
         <v>2</v>
       </c>
@@ -30429,9 +30536,9 @@
         <v>66.989999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="68"/>
-      <c r="B84" s="66"/>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" s="69"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="44">
         <v>3</v>
       </c>
@@ -30451,9 +30558,9 @@
         <v>67.87</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="68"/>
-      <c r="B85" s="66"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" s="69"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="44">
         <v>4</v>
       </c>
@@ -30473,9 +30580,9 @@
         <v>66.48</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="68"/>
-      <c r="B86" s="66"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" s="69"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="44">
         <v>5</v>
       </c>
@@ -30495,9 +30602,9 @@
         <v>66.11</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="68"/>
-      <c r="B87" s="66"/>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" s="69"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="44">
         <v>6</v>
       </c>
@@ -30517,9 +30624,9 @@
         <v>67.69</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="68"/>
-      <c r="B88" s="66"/>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" s="69"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="44">
         <v>7</v>
       </c>
@@ -30539,9 +30646,9 @@
         <v>66.56</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="68"/>
-      <c r="B89" s="66"/>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" s="69"/>
+      <c r="B89" s="67"/>
       <c r="C89" s="44">
         <v>8</v>
       </c>
@@ -30561,9 +30668,9 @@
         <v>68.12</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="68"/>
-      <c r="B90" s="66">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" s="69"/>
+      <c r="B90" s="67">
         <v>100</v>
       </c>
       <c r="C90" s="44">
@@ -30585,9 +30692,9 @@
         <v>68.489999999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="68"/>
-      <c r="B91" s="66"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" s="69"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="44">
         <v>2</v>
       </c>
@@ -30607,9 +30714,9 @@
         <v>67.45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="68"/>
-      <c r="B92" s="66"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" s="69"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="44">
         <v>3</v>
       </c>
@@ -30629,9 +30736,9 @@
         <v>67.38</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="68"/>
-      <c r="B93" s="66"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" s="69"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="44">
         <v>4</v>
       </c>
@@ -30651,9 +30758,9 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="68"/>
-      <c r="B94" s="66"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" s="69"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="44">
         <v>5</v>
       </c>
@@ -30673,9 +30780,9 @@
         <v>67.180000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="68"/>
-      <c r="B95" s="66"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" s="69"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="44">
         <v>6</v>
       </c>
@@ -30695,9 +30802,9 @@
         <v>67.83</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="68"/>
-      <c r="B96" s="66"/>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="69"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="44">
         <v>7</v>
       </c>
@@ -30717,9 +30824,9 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="68"/>
-      <c r="B97" s="66"/>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" s="69"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="44">
         <v>8</v>
       </c>
@@ -30739,9 +30846,9 @@
         <v>68.17</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="68"/>
-      <c r="B98" s="66">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" s="69"/>
+      <c r="B98" s="67">
         <v>200</v>
       </c>
       <c r="C98" s="44">
@@ -30763,9 +30870,9 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="68"/>
-      <c r="B99" s="66"/>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" s="69"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="44">
         <v>2</v>
       </c>
@@ -30785,9 +30892,9 @@
         <v>69.42</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="68"/>
-      <c r="B100" s="66"/>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" s="69"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="44">
         <v>3</v>
       </c>
@@ -30807,9 +30914,9 @@
         <v>68.23</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="68"/>
-      <c r="B101" s="66"/>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" s="69"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="44">
         <v>4</v>
       </c>
@@ -30829,9 +30936,9 @@
         <v>67.53</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="68"/>
-      <c r="B102" s="66"/>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" s="69"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="44">
         <v>5</v>
       </c>
@@ -30851,9 +30958,9 @@
         <v>68.03</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="68"/>
-      <c r="B103" s="66"/>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103" s="69"/>
+      <c r="B103" s="67"/>
       <c r="C103" s="44">
         <v>6</v>
       </c>
@@ -30873,9 +30980,9 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="68"/>
-      <c r="B104" s="66"/>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" s="69"/>
+      <c r="B104" s="67"/>
       <c r="C104" s="44">
         <v>7</v>
       </c>
@@ -30895,9 +31002,9 @@
         <v>65.41</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="68"/>
-      <c r="B105" s="66"/>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" s="69"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="44">
         <v>8</v>
       </c>
@@ -30917,9 +31024,9 @@
         <v>67.930000000000007</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="68"/>
-      <c r="B106" s="66">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" s="69"/>
+      <c r="B106" s="67">
         <v>400</v>
       </c>
       <c r="C106" s="44">
@@ -30941,9 +31048,9 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="68"/>
-      <c r="B107" s="66"/>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" s="69"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="44">
         <v>2</v>
       </c>
@@ -30963,9 +31070,9 @@
         <v>67.38</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="68"/>
-      <c r="B108" s="66"/>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" s="69"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="44">
         <v>3</v>
       </c>
@@ -30985,9 +31092,9 @@
         <v>68.05</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="68"/>
-      <c r="B109" s="66"/>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" s="69"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="44">
         <v>4</v>
       </c>
@@ -31007,9 +31114,9 @@
         <v>66.61</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="68"/>
-      <c r="B110" s="66"/>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" s="69"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="44">
         <v>5</v>
       </c>
@@ -31029,9 +31136,9 @@
         <v>65.569999999999993</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="68"/>
-      <c r="B111" s="66"/>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" s="69"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="44">
         <v>6</v>
       </c>
@@ -31051,9 +31158,9 @@
         <v>67.989999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="68"/>
-      <c r="B112" s="66"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" s="69"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="44">
         <v>7</v>
       </c>
@@ -31073,9 +31180,9 @@
         <v>67.97</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="68"/>
-      <c r="B113" s="66"/>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113" s="69"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="44">
         <v>8</v>
       </c>
@@ -31095,9 +31202,9 @@
         <v>67.12</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="68"/>
-      <c r="B114" s="66">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" s="69"/>
+      <c r="B114" s="67">
         <v>600</v>
       </c>
       <c r="C114" s="44">
@@ -31119,9 +31226,9 @@
         <v>65.41</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="68"/>
-      <c r="B115" s="66"/>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115" s="69"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="44">
         <v>2</v>
       </c>
@@ -31141,9 +31248,9 @@
         <v>67.989999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="68"/>
-      <c r="B116" s="66"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" s="69"/>
+      <c r="B116" s="67"/>
       <c r="C116" s="44">
         <v>3</v>
       </c>
@@ -31163,9 +31270,9 @@
         <v>67.989999999999995</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="68"/>
-      <c r="B117" s="66"/>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" s="69"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="44">
         <v>4</v>
       </c>
@@ -31185,9 +31292,9 @@
         <v>66.72</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="68"/>
-      <c r="B118" s="66"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" s="69"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="44">
         <v>5</v>
       </c>
@@ -31207,9 +31314,9 @@
         <v>67.78</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="68"/>
-      <c r="B119" s="66"/>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119" s="69"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="44">
         <v>6</v>
       </c>
@@ -31229,9 +31336,9 @@
         <v>67.86</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="68"/>
-      <c r="B120" s="66"/>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" s="69"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="44">
         <v>7</v>
       </c>
@@ -31251,9 +31358,9 @@
         <v>67.709999999999994</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="69"/>
-      <c r="B121" s="66"/>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" s="70"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="44">
         <v>8</v>
       </c>
@@ -31275,24 +31382,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A42:A81"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="B74:B81"/>
     <mergeCell ref="A82:A121"/>
     <mergeCell ref="B82:B89"/>
     <mergeCell ref="B90:B97"/>
     <mergeCell ref="B98:B105"/>
     <mergeCell ref="B106:B113"/>
     <mergeCell ref="B114:B121"/>
-    <mergeCell ref="A42:A81"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31307,24 +31414,24 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="58.6640625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.46484375" customWidth="1"/>
     <col min="10" max="10" width="1.6640625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
     <col min="12" max="12" width="38.6640625" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="15" width="20.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="20.796875" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
-    <col min="20" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.796875" customWidth="1"/>
+    <col min="18" max="18" width="10.796875" customWidth="1"/>
+    <col min="20" max="23" width="10.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>618</v>
       </c>
@@ -31351,14 +31458,14 @@
       </c>
       <c r="I1" s="56"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="75" t="s">
         <v>623</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>579</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="81" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="55" t="s">
@@ -31375,7 +31482,7 @@
       </c>
       <c r="H2" s="63"/>
       <c r="I2" s="57"/>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="67" t="s">
         <v>586</v>
       </c>
       <c r="L2" s="33" t="s">
@@ -31394,10 +31501,10 @@
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="81"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="70"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="76"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="55" t="s">
         <v>582</v>
       </c>
@@ -31412,8 +31519,8 @@
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="57"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="67" t="s">
         <v>589</v>
       </c>
       <c r="M3" s="44">
@@ -31429,10 +31536,10 @@
         <v>8.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="81"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="71" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" s="76"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="82" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="55" t="s">
@@ -31449,8 +31556,8 @@
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="57"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="44">
         <v>100</v>
       </c>
@@ -31464,10 +31571,10 @@
         <v>-9.74E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="81"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="71"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" s="76"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="55" t="s">
         <v>582</v>
       </c>
@@ -31482,8 +31589,8 @@
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="57"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="44">
         <v>200</v>
       </c>
@@ -31497,12 +31604,12 @@
         <v>-4.24E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="81"/>
-      <c r="B6" s="66" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="76"/>
+      <c r="B6" s="67" t="s">
         <v>580</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -31519,8 +31626,8 @@
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="57"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="44">
         <v>400</v>
       </c>
@@ -31534,10 +31641,10 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="81"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="76"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="55" t="s">
         <v>582</v>
       </c>
@@ -31554,8 +31661,8 @@
         <v>74.56</v>
       </c>
       <c r="I7" s="57"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="44">
         <v>600</v>
       </c>
@@ -31588,10 +31695,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="81"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="76"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="55" t="s">
@@ -31608,8 +31715,8 @@
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="57"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66" t="s">
+      <c r="K8" s="67"/>
+      <c r="L8" s="67" t="s">
         <v>590</v>
       </c>
       <c r="M8" s="44">
@@ -31651,10 +31758,10 @@
         <v>-3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="81"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="76"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="55" t="s">
         <v>582</v>
       </c>
@@ -31669,8 +31776,8 @@
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="57"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="44">
         <v>100</v>
       </c>
@@ -31683,7 +31790,7 @@
       <c r="P9" s="44">
         <v>-0.1123</v>
       </c>
-      <c r="R9" s="76"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="44" t="s">
         <v>610</v>
       </c>
@@ -31708,12 +31815,12 @@
         <v>0.31746666666666662</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="81"/>
-      <c r="B10" s="66" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="76"/>
+      <c r="B10" s="67" t="s">
         <v>606</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="55" t="s">
@@ -31730,8 +31837,8 @@
       </c>
       <c r="H10" s="63"/>
       <c r="I10" s="57"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="44">
         <v>200</v>
       </c>
@@ -31771,10 +31878,10 @@
         <v>-0.19040000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="81"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="76"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="55" t="s">
         <v>582</v>
       </c>
@@ -31789,8 +31896,8 @@
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="57"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="44">
         <v>400</v>
       </c>
@@ -31803,7 +31910,7 @@
       <c r="P11" s="44">
         <v>0.26319999999999999</v>
       </c>
-      <c r="R11" s="76"/>
+      <c r="R11" s="77"/>
       <c r="S11" s="44" t="s">
         <v>610</v>
       </c>
@@ -31828,9 +31935,9 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="81"/>
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="76"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="75" t="s">
         <v>101</v>
       </c>
@@ -31848,8 +31955,8 @@
       </c>
       <c r="H12" s="63"/>
       <c r="I12" s="57"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="44">
         <v>600</v>
       </c>
@@ -31889,10 +31996,10 @@
         <v>-8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="76"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="76"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" s="77"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="55" t="s">
         <v>582</v>
       </c>
@@ -31909,8 +32016,8 @@
         <v>73.06</v>
       </c>
       <c r="I13" s="57"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66" t="s">
+      <c r="K13" s="67"/>
+      <c r="L13" s="67" t="s">
         <v>591</v>
       </c>
       <c r="M13" s="44">
@@ -31925,7 +32032,7 @@
       <c r="P13" s="44">
         <v>0.10299999999999999</v>
       </c>
-      <c r="R13" s="76"/>
+      <c r="R13" s="77"/>
       <c r="S13" s="44" t="s">
         <v>610</v>
       </c>
@@ -31950,7 +32057,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="75" t="s">
         <v>583</v>
       </c>
@@ -31974,8 +32081,8 @@
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="57"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="44">
         <v>100</v>
       </c>
@@ -32015,10 +32122,10 @@
         <v>-5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="55" t="s">
         <v>582</v>
       </c>
@@ -32033,8 +32140,8 @@
       </c>
       <c r="H15" s="63"/>
       <c r="I15" s="57"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="44">
         <v>200</v>
       </c>
@@ -32047,7 +32154,7 @@
       <c r="P15" s="44">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="R15" s="76"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="44" t="s">
         <v>610</v>
       </c>
@@ -32072,10 +32179,10 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="76"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="54" t="s">
         <v>584</v>
       </c>
@@ -32090,8 +32197,8 @@
       </c>
       <c r="H16" s="64"/>
       <c r="I16" s="58"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="44">
         <v>400</v>
       </c>
@@ -32105,9 +32212,9 @@
         <v>0.13009999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="75" t="s">
         <v>101</v>
       </c>
@@ -32125,8 +32232,8 @@
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="59"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="44">
         <v>600</v>
       </c>
@@ -32140,10 +32247,10 @@
         <v>-3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="52" t="s">
         <v>582</v>
       </c>
@@ -32158,15 +32265,15 @@
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="59"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="81"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="80"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="76"/>
       <c r="B19" s="75" t="s">
         <v>580</v>
       </c>
@@ -32187,7 +32294,7 @@
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="59"/>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="67" t="s">
         <v>593</v>
       </c>
       <c r="L19" s="33" t="s">
@@ -32206,10 +32313,10 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="76"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="52" t="s">
         <v>582</v>
       </c>
@@ -32224,8 +32331,8 @@
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="59"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66" t="s">
+      <c r="K20" s="67"/>
+      <c r="L20" s="67" t="s">
         <v>594</v>
       </c>
       <c r="M20" s="44">
@@ -32241,9 +32348,9 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="75" t="s">
         <v>101</v>
       </c>
@@ -32261,8 +32368,8 @@
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="59"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="44">
         <v>100</v>
       </c>
@@ -32276,26 +32383,26 @@
         <v>-0.1099</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="79" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="73" t="s">
         <v>582</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="73">
         <v>96.86</v>
       </c>
-      <c r="F22" s="79" t="s">
+      <c r="F22" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="71" t="s">
         <v>663</v>
       </c>
       <c r="H22" s="65"/>
       <c r="I22" s="59"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="44">
         <v>200</v>
       </c>
@@ -32309,18 +32416,18 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="81"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="78"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="65"/>
       <c r="I23" s="59"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="44">
         <v>400</v>
       </c>
@@ -32334,8 +32441,8 @@
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="81"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" s="76"/>
       <c r="B24" s="75" t="s">
         <v>606</v>
       </c>
@@ -32356,8 +32463,8 @@
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="59"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="44">
         <v>600</v>
       </c>
@@ -32371,10 +32478,10 @@
         <v>-8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="76"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="35" t="s">
         <v>582</v>
       </c>
@@ -32391,8 +32498,8 @@
         <v>74.180000000000007</v>
       </c>
       <c r="I25" s="57"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66" t="s">
+      <c r="K25" s="67"/>
+      <c r="L25" s="67" t="s">
         <v>624</v>
       </c>
       <c r="M25" s="44">
@@ -32408,9 +32515,9 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="75" t="s">
         <v>101</v>
       </c>
@@ -32428,8 +32535,8 @@
       </c>
       <c r="H26" s="63"/>
       <c r="I26" s="57"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="44">
         <v>100</v>
       </c>
@@ -32443,10 +32550,10 @@
         <v>-0.26569999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="35" t="s">
         <v>582</v>
       </c>
@@ -32463,8 +32570,8 @@
         <v>73.5</v>
       </c>
       <c r="I27" s="57"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="44">
         <v>200</v>
       </c>
@@ -32478,9 +32585,9 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
       <c r="M28" s="44">
         <v>400</v>
       </c>
@@ -32494,9 +32601,9 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="44">
         <v>600</v>
       </c>
@@ -32510,9 +32617,9 @@
         <v>-5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="K30" s="66"/>
-      <c r="L30" s="66" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K30" s="67"/>
+      <c r="L30" s="67" t="s">
         <v>595</v>
       </c>
       <c r="M30" s="44">
@@ -32528,9 +32635,9 @@
         <v>0.1048</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="44">
         <v>100</v>
       </c>
@@ -32544,9 +32651,9 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
       <c r="M32" s="44">
         <v>200</v>
       </c>
@@ -32560,9 +32667,9 @@
         <v>-5.6899999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="11:16">
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.4">
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
       <c r="M33" s="44">
         <v>400</v>
       </c>
@@ -32576,9 +32683,9 @@
         <v>-0.3014</v>
       </c>
     </row>
-    <row r="34" spans="11:16">
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.4">
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
       <c r="M34" s="44">
         <v>600</v>
       </c>
@@ -32594,6 +32701,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="K2:K17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="K19:K34"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="C17:C18"/>
@@ -32610,27 +32738,6 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="K19:K34"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="K2:K17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32647,13 +32754,13 @@
       <selection activeCell="L124" sqref="L123:L124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="38" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="40.46484375" style="38" customWidth="1"/>
+    <col min="2" max="3" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>771</v>
       </c>
@@ -32664,7 +32771,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="38" t="s">
         <v>669</v>
       </c>
@@ -32675,7 +32782,7 @@
         <v>80.95</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="38" t="s">
         <v>670</v>
       </c>
@@ -32686,7 +32793,7 @@
         <v>78.42</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="38" t="s">
         <v>671</v>
       </c>
@@ -32697,7 +32804,7 @@
         <v>80.760000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
         <v>672</v>
       </c>
@@ -32708,7 +32815,7 @@
         <v>76.44</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="38" t="s">
         <v>673</v>
       </c>
@@ -32719,7 +32826,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="38" t="s">
         <v>674</v>
       </c>
@@ -32730,7 +32837,7 @@
         <v>78.31</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="38" t="s">
         <v>675</v>
       </c>
@@ -32741,7 +32848,7 @@
         <v>78.03</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="38" t="s">
         <v>676</v>
       </c>
@@ -32752,7 +32859,7 @@
         <v>76.36</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="38" t="s">
         <v>677</v>
       </c>
@@ -32763,7 +32870,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="38" t="s">
         <v>678</v>
       </c>
@@ -32774,7 +32881,7 @@
         <v>74.930000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="38" t="s">
         <v>679</v>
       </c>
@@ -32785,7 +32892,7 @@
         <v>80.62</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="38" t="s">
         <v>680</v>
       </c>
@@ -32796,7 +32903,7 @@
         <v>79.39</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="38" t="s">
         <v>681</v>
       </c>
@@ -32807,7 +32914,7 @@
         <v>78.98</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="38" t="s">
         <v>682</v>
       </c>
@@ -32818,7 +32925,7 @@
         <v>77.16</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="38" t="s">
         <v>683</v>
       </c>
@@ -32829,7 +32936,7 @@
         <v>77.81</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="38" t="s">
         <v>684</v>
       </c>
@@ -32840,7 +32947,7 @@
         <v>78.010000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="38" t="s">
         <v>685</v>
       </c>
@@ -32851,7 +32958,7 @@
         <v>79.180000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="38" t="s">
         <v>686</v>
       </c>
@@ -32862,7 +32969,7 @@
         <v>77.59</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="38" t="s">
         <v>687</v>
       </c>
@@ -32873,7 +32980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="38" t="s">
         <v>688</v>
       </c>
@@ -32884,7 +32991,7 @@
         <v>80.760000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="38" t="s">
         <v>689</v>
       </c>
@@ -32895,7 +33002,7 @@
         <v>79.41</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="38" t="s">
         <v>690</v>
       </c>
@@ -32906,7 +33013,7 @@
         <v>76.48</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="38" t="s">
         <v>691</v>
       </c>
@@ -32917,7 +33024,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="38" t="s">
         <v>692</v>
       </c>
@@ -32928,7 +33035,7 @@
         <v>80.260000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="38" t="s">
         <v>693</v>
       </c>
@@ -32939,7 +33046,7 @@
         <v>76.05</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="38" t="s">
         <v>694</v>
       </c>
@@ -32950,7 +33057,7 @@
         <v>81.81</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="38" t="s">
         <v>695</v>
       </c>
@@ -32961,7 +33068,7 @@
         <v>74.72</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="38" t="s">
         <v>696</v>
       </c>
@@ -32972,7 +33079,7 @@
         <v>80.09</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="38" t="s">
         <v>697</v>
       </c>
@@ -32983,7 +33090,7 @@
         <v>81.31</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="38" t="s">
         <v>698</v>
       </c>
@@ -32994,7 +33101,7 @@
         <v>76.84</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="38" t="s">
         <v>699</v>
       </c>
@@ -33005,7 +33112,7 @@
         <v>78.36</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="38" t="s">
         <v>700</v>
       </c>
@@ -33016,7 +33123,7 @@
         <v>79.67</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="38" t="s">
         <v>701</v>
       </c>
@@ -33027,7 +33134,7 @@
         <v>81.790000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="38" t="s">
         <v>702</v>
       </c>
@@ -33038,7 +33145,7 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="38" t="s">
         <v>703</v>
       </c>
@@ -33049,7 +33156,7 @@
         <v>78.680000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="38" t="s">
         <v>704</v>
       </c>
@@ -33060,7 +33167,7 @@
         <v>79.25</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="38" t="s">
         <v>705</v>
       </c>
@@ -33071,7 +33178,7 @@
         <v>80.42</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="38" t="s">
         <v>706</v>
       </c>
@@ -33082,7 +33189,7 @@
         <v>78.489999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>707</v>
       </c>
@@ -33093,7 +33200,7 @@
         <v>80.58</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="38" t="s">
         <v>708</v>
       </c>
@@ -33104,7 +33211,7 @@
         <v>73.25</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="38" t="s">
         <v>709</v>
       </c>
@@ -33115,7 +33222,7 @@
         <v>82.03</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="38" t="s">
         <v>710</v>
       </c>
@@ -33126,7 +33233,7 @@
         <v>78.650000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="38" t="s">
         <v>711</v>
       </c>
@@ -33137,7 +33244,7 @@
         <v>79.63</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="38" t="s">
         <v>712</v>
       </c>
@@ -33148,7 +33255,7 @@
         <v>78.77</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="38" t="s">
         <v>713</v>
       </c>
@@ -33159,7 +33266,7 @@
         <v>80.42</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="38" t="s">
         <v>714</v>
       </c>
@@ -33170,7 +33277,7 @@
         <v>77.239999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="38" t="s">
         <v>715</v>
       </c>
@@ -33181,7 +33288,7 @@
         <v>77.52</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="38" t="s">
         <v>716</v>
       </c>
@@ -33192,7 +33299,7 @@
         <v>77.540000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="38" t="s">
         <v>717</v>
       </c>
@@ -33203,7 +33310,7 @@
         <v>79.19</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="38" t="s">
         <v>718</v>
       </c>
@@ -33214,7 +33321,7 @@
         <v>78.959999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="38" t="s">
         <v>719</v>
       </c>
@@ -33225,7 +33332,7 @@
         <v>80.209999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="38" t="s">
         <v>720</v>
       </c>
@@ -33236,7 +33343,7 @@
         <v>79.89</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="38" t="s">
         <v>721</v>
       </c>
@@ -33247,7 +33354,7 @@
         <v>75.69</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="38" t="s">
         <v>722</v>
       </c>
@@ -33258,7 +33365,7 @@
         <v>77.05</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="38" t="s">
         <v>723</v>
       </c>
@@ -33269,7 +33376,7 @@
         <v>77.56</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="38" t="s">
         <v>724</v>
       </c>
@@ -33280,7 +33387,7 @@
         <v>81.290000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="38" t="s">
         <v>725</v>
       </c>
@@ -33291,7 +33398,7 @@
         <v>82.13</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="38" t="s">
         <v>726</v>
       </c>
@@ -33302,7 +33409,7 @@
         <v>81.69</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="38" t="s">
         <v>727</v>
       </c>
@@ -33313,7 +33420,7 @@
         <v>78.56</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="38" t="s">
         <v>728</v>
       </c>
@@ -33324,7 +33431,7 @@
         <v>80.08</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="38" t="s">
         <v>729</v>
       </c>
@@ -33335,7 +33442,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="38" t="s">
         <v>730</v>
       </c>
@@ -33346,7 +33453,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="38" t="s">
         <v>731</v>
       </c>
@@ -33357,7 +33464,7 @@
         <v>80.59</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="38" t="s">
         <v>732</v>
       </c>
@@ -33368,7 +33475,7 @@
         <v>81.66</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="38" t="s">
         <v>733</v>
       </c>
@@ -33379,7 +33486,7 @@
         <v>78.98</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="38" t="s">
         <v>734</v>
       </c>
@@ -33390,7 +33497,7 @@
         <v>76.13</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="38" t="s">
         <v>735</v>
       </c>
@@ -33401,7 +33508,7 @@
         <v>77.03</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="38" t="s">
         <v>736</v>
       </c>
@@ -33412,7 +33519,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="38" t="s">
         <v>737</v>
       </c>
@@ -33423,7 +33530,7 @@
         <v>73.430000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="38" t="s">
         <v>738</v>
       </c>
@@ -33434,7 +33541,7 @@
         <v>75.89</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="38" t="s">
         <v>739</v>
       </c>
@@ -33445,7 +33552,7 @@
         <v>77.17</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="38" t="s">
         <v>740</v>
       </c>
@@ -33456,7 +33563,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="38" t="s">
         <v>741</v>
       </c>
@@ -33467,7 +33574,7 @@
         <v>81.69</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="38" t="s">
         <v>742</v>
       </c>
@@ -33478,7 +33585,7 @@
         <v>77.63</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="38" t="s">
         <v>743</v>
       </c>
@@ -33489,7 +33596,7 @@
         <v>82.34</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="38" t="s">
         <v>744</v>
       </c>
@@ -33500,7 +33607,7 @@
         <v>79.45</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="38" t="s">
         <v>745</v>
       </c>
@@ -33511,7 +33618,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="38" t="s">
         <v>746</v>
       </c>
@@ -33522,7 +33629,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="38" t="s">
         <v>747</v>
       </c>
@@ -33533,7 +33640,7 @@
         <v>81.510000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="38" t="s">
         <v>748</v>
       </c>
@@ -33544,7 +33651,7 @@
         <v>78.84</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="38" t="s">
         <v>749</v>
       </c>
@@ -33555,7 +33662,7 @@
         <v>78.77</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="38" t="s">
         <v>750</v>
       </c>
@@ -33566,7 +33673,7 @@
         <v>78.64</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="38" t="s">
         <v>751</v>
       </c>
@@ -33577,7 +33684,7 @@
         <v>81.16</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="38" t="s">
         <v>752</v>
       </c>
@@ -33588,7 +33695,7 @@
         <v>81.260000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="38" t="s">
         <v>753</v>
       </c>
@@ -33599,7 +33706,7 @@
         <v>76.569999999999993</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="38" t="s">
         <v>754</v>
       </c>
@@ -33610,7 +33717,7 @@
         <v>78.430000000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="38" t="s">
         <v>755</v>
       </c>
@@ -33621,7 +33728,7 @@
         <v>76.680000000000007</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="38" t="s">
         <v>756</v>
       </c>
@@ -33632,7 +33739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="38" t="s">
         <v>757</v>
       </c>
@@ -33643,7 +33750,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="38" t="s">
         <v>758</v>
       </c>
@@ -33654,7 +33761,7 @@
         <v>80.09</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="38" t="s">
         <v>759</v>
       </c>
@@ -33665,7 +33772,7 @@
         <v>73.84</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="38" t="s">
         <v>760</v>
       </c>
@@ -33676,7 +33783,7 @@
         <v>79.75</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="38" t="s">
         <v>761</v>
       </c>
@@ -33687,7 +33794,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="38" t="s">
         <v>762</v>
       </c>
@@ -33698,7 +33805,7 @@
         <v>81.12</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="38" t="s">
         <v>763</v>
       </c>
@@ -33709,7 +33816,7 @@
         <v>81.23</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="38" t="s">
         <v>764</v>
       </c>
@@ -33720,7 +33827,7 @@
         <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="38" t="s">
         <v>765</v>
       </c>
@@ -33731,7 +33838,7 @@
         <v>78.17</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="38" t="s">
         <v>766</v>
       </c>
@@ -33742,7 +33849,7 @@
         <v>79.77</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="38" t="s">
         <v>767</v>
       </c>
@@ -33753,7 +33860,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="38" t="s">
         <v>768</v>
       </c>
@@ -33764,7 +33871,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="38" t="s">
         <v>772</v>
       </c>
